--- a/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DBD45D-3117-444D-B71C-B92731ACDBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1508,6 +1518,44 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>AcSubBookCode</t>
+  </si>
+  <si>
+    <t>區隔帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊;201:利變年金帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvClsFlagSubBook</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrvFacmNoSubBook</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctCodeSubBook</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClsFlag = ,AND AcBookCode = ,AND AcSubBookCode %,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo &gt;= ,AND CustNo &lt;= </t>
+  </si>
+  <si>
+    <t>ClsFlag = ,AND AcBookCode = ,AND AcSubBookCode % ,AND AcctCode = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClsFlag = ,AND AcBookCode = ,AND AcSubBookCode % ,AND CustNo = ,AND AcctFlag = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險：原保險單保險迄日、暫付法務費：法務費單據日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.暫收款－可抵繳 : ''primary key 不可有null, 放一個空白
 2.擔保放款、催收款項 : 撥款序號(3)
 3.會計銷帳科目：系統自編(AC+西元年後兩碼+流水號六碼)
@@ -1517,53 +1565,16 @@
 7.未收、暫收、暫付、催收火險保費：原保險單號碼
 8.暫付、催收法務費：記錄號碼(8)
 9.短繳期金：撥款序號(3)
-10.'FacmNo'+額度編號(暫收款－借新還舊)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcSubBookCode</t>
-  </si>
-  <si>
-    <t>區隔帳冊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00A:傳統帳冊;201:利變年金帳冊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acrvClsFlagSubBook</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>acrvFacmNoSubBook</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctCodeSubBook</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClsFlag = ,AND AcBookCode = ,AND AcSubBookCode %,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo &gt;= ,AND CustNo &lt;= </t>
-  </si>
-  <si>
-    <t>ClsFlag = ,AND AcBookCode = ,AND AcSubBookCode % ,AND AcctCode = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClsFlag = ,AND AcBookCode = ,AND AcSubBookCode % ,AND CustNo = ,AND AcctFlag = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險：原保險單保險迄日、暫付法務費：法務費單據日期</t>
+10.'FacmNo'+額度編號(暫收款－借新還舊)
+11.聯貸手續費:SL+費用代號(2)+流水號(3)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2294,9 +2305,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2453,6 +2464,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2488,6 +2516,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2663,25 +2708,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="11"/>
+    <col min="4" max="4" width="15.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="99" t="s">
         <v>8</v>
       </c>
@@ -2696,7 +2741,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="99"/>
       <c r="B2" s="100"/>
       <c r="C2" s="12" t="s">
@@ -2709,7 +2754,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="102" t="s">
         <v>9</v>
       </c>
@@ -2724,7 +2769,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="99" t="s">
         <v>11</v>
       </c>
@@ -2735,7 +2780,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="102" t="s">
         <v>5</v>
       </c>
@@ -2748,7 +2793,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32.4">
       <c r="A6" s="99" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +2806,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="99" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2819,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="19" customFormat="1">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="40" customFormat="1">
       <c r="A9" s="41">
         <v>1</v>
       </c>
@@ -2818,7 +2863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="41">
         <f>A9+1</f>
         <v>2</v>
@@ -2838,7 +2883,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="41">
         <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
@@ -2860,7 +2905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="178.2">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2879,10 +2924,10 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2904,7 +2949,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="35" customFormat="1">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2926,7 +2971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2948,7 +2993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="22" customFormat="1">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2968,7 +3013,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2988,7 +3033,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3010,7 +3055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3032,7 +3077,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3054,7 +3099,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3076,7 +3121,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3100,7 +3145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3124,7 +3169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3144,7 +3189,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4">
       <c r="A25" s="41">
         <f t="shared" ref="A25:A37" si="1">A24+1</f>
         <v>17</v>
@@ -3166,16 +3211,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="95" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="96" t="s">
         <v>374</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>375</v>
       </c>
       <c r="D26" s="96" t="s">
         <v>86</v>
@@ -3185,10 +3230,10 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="98" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3207,10 +3252,10 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3232,7 +3277,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3254,7 +3299,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3276,7 +3321,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="40" customFormat="1">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3298,7 +3343,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3320,7 +3365,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3342,7 +3387,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="40" customFormat="1">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3362,7 +3407,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3384,7 +3429,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3404,7 +3449,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -3424,7 +3469,7 @@
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -3441,10 +3486,10 @@
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="G39" s="30"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -3469,7 +3514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -3477,15 +3522,15 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3496,7 +3541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -3507,7 +3552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -3518,7 +3563,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -3529,7 +3574,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -3540,7 +3585,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3551,7 +3596,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -3559,7 +3604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -3570,7 +3615,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -3581,7 +3626,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>206</v>
       </c>
@@ -3592,7 +3637,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>209</v>
       </c>
@@ -3600,34 +3645,34 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>186</v>
@@ -3641,34 +3686,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.125" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="54" customFormat="1">
       <c r="A1" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +3739,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
       <c r="B6" s="32">
         <v>1</v>
       </c>
@@ -3718,7 +3763,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
       <c r="B7" s="32">
         <v>2</v>
       </c>
@@ -3742,7 +3787,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
       <c r="B8" s="32">
         <v>3</v>
       </c>
@@ -3766,7 +3811,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53"/>
       <c r="D10" s="52"/>
     </row>
@@ -3777,61 +3822,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="54" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="54" customWidth="1"/>
-    <col min="12" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="14.75" customWidth="1"/>
-    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="54" customWidth="1"/>
+    <col min="12" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="44"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="44"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
         <v>100</v>
       </c>
@@ -3847,7 +3892,7 @@
       </c>
       <c r="P9" s="107"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="55" t="s">
         <v>161</v>
@@ -3871,7 +3916,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="44"/>
       <c r="J11" s="58"/>
       <c r="K11" s="59"/>
@@ -3881,7 +3926,7 @@
       <c r="O11" s="71"/>
       <c r="P11" s="61"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
         <v>165</v>
       </c>
@@ -3907,7 +3952,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
         <v>166</v>
       </c>
@@ -3933,7 +3978,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
         <v>101</v>
       </c>
@@ -3945,7 +3990,7 @@
       <c r="O14" s="71"/>
       <c r="P14" s="61"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
         <v>102</v>
       </c>
@@ -3957,7 +4002,7 @@
       <c r="O15" s="71"/>
       <c r="P15" s="61"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
         <v>167</v>
       </c>
@@ -3973,7 +4018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
         <v>168</v>
       </c>
@@ -3989,7 +4034,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
         <v>169</v>
       </c>
@@ -4005,294 +4050,294 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="44"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="44"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="44"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="44"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="44"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="44"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="44"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="44"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="44"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
         <v>149</v>
       </c>
@@ -4303,7 +4348,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="103">
         <v>1</v>
       </c>
@@ -4314,14 +4359,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="16.8" thickBot="1">
       <c r="A86" s="104"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
       <c r="C86" s="104"/>
     </row>
-    <row r="87" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">
         <v>2</v>
       </c>
@@ -4332,28 +4377,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="45"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="44"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="44"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="44"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="44"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="44"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="44"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="44"/>
     </row>
   </sheetData>
@@ -4374,7 +4419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4382,29 +4427,29 @@
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="79" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="79" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="79" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="79" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="79" customWidth="1"/>
     <col min="6" max="6" width="8" style="79" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="79" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.625" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="79" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" style="79" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="79" customWidth="1"/>
     <col min="12" max="12" width="15" style="79" customWidth="1"/>
-    <col min="13" max="13" width="21.75" style="79" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="79" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" style="79" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="79" customWidth="1"/>
     <col min="15" max="15" width="8" style="79" customWidth="1"/>
-    <col min="16" max="16" width="25.125" style="79" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" style="79" customWidth="1"/>
     <col min="17" max="17" width="53" style="79" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="79"/>
+    <col min="18" max="16384" width="8.88671875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="88" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>246</v>
       </c>
@@ -4457,7 +4502,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="77" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="77" t="s">
         <v>243</v>
       </c>
@@ -4496,7 +4541,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="77" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6">
       <c r="A3" s="91" t="s">
         <v>224</v>
       </c>
@@ -4544,7 +4589,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="90" t="s">
         <v>226</v>
       </c>
@@ -4591,7 +4636,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="89" t="s">
         <v>236</v>
       </c>
@@ -4639,7 +4684,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="90" t="s">
         <v>225</v>
       </c>
@@ -4687,7 +4732,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="90" t="s">
         <v>235</v>
       </c>
@@ -4735,7 +4780,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="90" t="s">
         <v>227</v>
       </c>
@@ -4775,7 +4820,7 @@
       </c>
       <c r="P8" s="80"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="90" t="s">
         <v>228</v>
       </c>
@@ -4815,7 +4860,7 @@
       </c>
       <c r="P9" s="80"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="81" t="s">
         <v>229</v>
       </c>
@@ -4849,7 +4894,7 @@
       </c>
       <c r="P10" s="80"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="81" t="s">
         <v>230</v>
       </c>
@@ -4874,7 +4919,7 @@
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="81" t="s">
         <v>231</v>
       </c>
@@ -4899,7 +4944,7 @@
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="81" t="s">
         <v>232</v>
       </c>
@@ -4924,7 +4969,7 @@
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="81" t="s">
         <v>233</v>
       </c>
@@ -4949,7 +4994,7 @@
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="81" t="s">
         <v>343</v>
       </c>
@@ -4963,7 +5008,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="81" t="s">
         <v>345</v>
       </c>
@@ -4986,7 +5031,7 @@
       <c r="J16" s="77"/>
       <c r="K16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="81" t="s">
         <v>346</v>
       </c>
@@ -5009,7 +5054,7 @@
       <c r="J17" s="77"/>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="81" t="s">
         <v>347</v>
       </c>
@@ -5032,7 +5077,7 @@
       <c r="J18" s="77"/>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="81" t="s">
         <v>348</v>
       </c>
@@ -5055,7 +5100,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="81" t="s">
         <v>368</v>
       </c>
@@ -5071,7 +5116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="90" t="s">
         <v>288</v>
       </c>
@@ -5112,7 +5157,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="92" t="s">
         <v>334</v>
       </c>
@@ -5134,7 +5179,7 @@
       <c r="N22" s="80"/>
       <c r="O22" s="80"/>
     </row>
-    <row r="23" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="92" t="s">
         <v>335</v>
       </c>
@@ -5159,14 +5204,14 @@
       <c r="N23" s="80"/>
       <c r="O23" s="80"/>
     </row>
-    <row r="24" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="39.6" customHeight="1">
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
       <c r="L24" s="80"/>
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
     </row>
-    <row r="25" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="90" t="s">
         <v>326</v>
       </c>
@@ -5213,15 +5258,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
     </row>
-    <row r="28" spans="1:17" ht="66" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="89" t="s">
         <v>316</v>
       </c>
@@ -5268,7 +5313,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="90" t="s">
         <v>283</v>
       </c>
@@ -5316,7 +5361,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DBD45D-3117-444D-B71C-B92731ACDBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D376F9EB-FAA4-4F98-9A84-DBC626444FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="387">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1568,6 +1568,18 @@
 10.'FacmNo'+額度編號(暫收款－借新還舊)
 11.聯貸手續費:SL+費用代號(2)+流水號(3)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>useL2064Eq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND AcctFlag &gt;= ,AND AcctFlag &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2711,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3515,11 +3527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3676,6 +3688,17 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D376F9EB-FAA4-4F98-9A84-DBC626444FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1346,14 +1345,6 @@
   <si>
     <t>抓該額度下尚有餘額的第一筆撥款序號</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:會計銷帳科目
-2:業務銷帳科目
-3:未收費用
-4:短繳期金
-5.另收欠款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS400.LN$LORP</t>
@@ -1581,12 +1572,20 @@
     <t>FacmNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>1:會計銷帳科目
+2:業務銷帳科目
+3:未收費用
+4:短繳期金
+5.另收欠款(未用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2317,9 +2316,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2476,23 +2475,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2528,23 +2510,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2720,14 +2685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="20" bestFit="1" customWidth="1"/>
@@ -2738,7 +2703,7 @@
     <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>8</v>
       </c>
@@ -2753,7 +2718,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="99"/>
       <c r="B2" s="100"/>
       <c r="C2" s="12" t="s">
@@ -2766,7 +2731,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="102" t="s">
         <v>9</v>
       </c>
@@ -2781,7 +2746,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="99" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +2757,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2770,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="32.4">
+    <row r="6" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" s="99" t="s">
         <v>6</v>
       </c>
@@ -2818,7 +2783,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="99" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +2796,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1">
+    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="40" customFormat="1">
+    <row r="9" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41">
         <v>1</v>
       </c>
@@ -2875,7 +2840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <f>A9+1</f>
         <v>2</v>
@@ -2895,7 +2860,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
@@ -2917,7 +2882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="178.2">
+    <row r="12" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2936,10 +2901,10 @@
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="28" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2961,7 +2926,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="35" customFormat="1">
+    <row r="14" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2983,7 +2948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3005,7 +2970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1">
+    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3025,7 +2990,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3045,7 +3010,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3067,7 +3032,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3086,10 +3051,10 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3108,10 +3073,10 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="37" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3133,7 +3098,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3157,7 +3122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3181,7 +3146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3201,7 +3166,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4">
+    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f t="shared" ref="A25:A37" si="1">A24+1</f>
         <v>17</v>
@@ -3223,16 +3188,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="95" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="96" t="s">
         <v>373</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>374</v>
       </c>
       <c r="D26" s="96" t="s">
         <v>86</v>
@@ -3242,10 +3207,10 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="98" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3264,10 +3229,10 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3289,7 +3254,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3311,7 +3276,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3333,7 +3298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="40" customFormat="1">
+    <row r="31" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3355,7 +3320,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3377,7 +3342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3399,7 +3364,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="40" customFormat="1">
+    <row r="34" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3419,7 +3384,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3441,7 +3406,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3461,7 +3426,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -3481,7 +3446,7 @@
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -3498,10 +3463,10 @@
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G39" s="30"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -3526,15 +3491,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
@@ -3542,7 +3507,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3553,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -3564,7 +3529,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -3575,7 +3540,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -3586,7 +3551,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -3597,7 +3562,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3608,7 +3573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -3616,7 +3581,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -3627,7 +3592,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32.4">
+    <row r="9" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -3638,7 +3603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>206</v>
       </c>
@@ -3649,7 +3614,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>209</v>
       </c>
@@ -3657,48 +3622,48 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32.4">
+    <row r="13" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3709,14 +3674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
@@ -3726,17 +3691,17 @@
     <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1">
+    <row r="1" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3759,15 +3724,15 @@
         <v>54</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>181</v>
@@ -3780,21 +3745,21 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32">
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>357</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>358</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>86</v>
@@ -3804,21 +3769,21 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
+    </row>
+    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32">
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>12</v>
@@ -3828,13 +3793,13 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="53"/>
       <c r="D10" s="52"/>
     </row>
@@ -3845,14 +3810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="54" customWidth="1"/>
@@ -3863,43 +3828,43 @@
     <col min="16" max="16" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>100</v>
       </c>
@@ -3915,7 +3880,7 @@
       </c>
       <c r="P9" s="107"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="J10" s="55" t="s">
         <v>161</v>
@@ -3939,7 +3904,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="J11" s="58"/>
       <c r="K11" s="59"/>
@@ -3949,7 +3914,7 @@
       <c r="O11" s="71"/>
       <c r="P11" s="61"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>165</v>
       </c>
@@ -3975,7 +3940,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>166</v>
       </c>
@@ -4001,7 +3966,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>101</v>
       </c>
@@ -4013,7 +3978,7 @@
       <c r="O14" s="71"/>
       <c r="P14" s="61"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>102</v>
       </c>
@@ -4025,7 +3990,7 @@
       <c r="O15" s="71"/>
       <c r="P15" s="61"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>167</v>
       </c>
@@ -4041,7 +4006,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>168</v>
       </c>
@@ -4057,7 +4022,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>169</v>
       </c>
@@ -4073,294 +4038,294 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="44"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="44"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="44"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="44"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="44" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="44"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.8" thickBot="1">
+    <row r="83" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.8" thickBot="1">
+    <row r="84" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="46" t="s">
         <v>149</v>
       </c>
@@ -4371,7 +4336,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="103">
         <v>1</v>
       </c>
@@ -4382,14 +4347,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.8" thickBot="1">
+    <row r="86" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="104"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
       <c r="C86" s="104"/>
     </row>
-    <row r="87" spans="1:3" ht="16.8" thickBot="1">
+    <row r="87" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="50">
         <v>2</v>
       </c>
@@ -4400,28 +4365,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="45"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="44"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="44"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="44"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="44"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="44"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="44"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="44"/>
     </row>
   </sheetData>
@@ -4442,15 +4407,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="81" bestFit="1" customWidth="1"/>
@@ -4472,7 +4437,7 @@
     <col min="18" max="16384" width="8.88671875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1">
+    <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
         <v>246</v>
       </c>
@@ -4486,7 +4451,7 @@
         <v>267</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F1" s="78" t="s">
         <v>249</v>
@@ -4525,7 +4490,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1">
+    <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>243</v>
       </c>
@@ -4564,7 +4529,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6">
+    <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="91" t="s">
         <v>224</v>
       </c>
@@ -4576,7 +4541,7 @@
         <v>268</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="77" t="s">
         <v>299</v>
@@ -4612,7 +4577,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="32.4">
+    <row r="4" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="90" t="s">
         <v>226</v>
       </c>
@@ -4623,7 +4588,7 @@
         <v>268</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G4" s="77" t="s">
         <v>299</v>
@@ -4659,7 +4624,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="32.4">
+    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
         <v>236</v>
       </c>
@@ -4670,7 +4635,7 @@
         <v>268</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="77" t="s">
@@ -4707,7 +4672,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="32.4">
+    <row r="6" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" s="90" t="s">
         <v>225</v>
       </c>
@@ -4718,7 +4683,7 @@
         <v>280</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="77" t="s">
@@ -4749,13 +4714,13 @@
         <v>277</v>
       </c>
       <c r="P6" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q6" s="84" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="32.4">
+    <row r="7" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="90" t="s">
         <v>235</v>
       </c>
@@ -4766,7 +4731,7 @@
         <v>280</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F7" s="81"/>
       <c r="G7" s="77" t="s">
@@ -4803,7 +4768,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>227</v>
       </c>
@@ -4843,7 +4808,7 @@
       </c>
       <c r="P8" s="80"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="90" t="s">
         <v>228</v>
       </c>
@@ -4883,12 +4848,12 @@
       </c>
       <c r="P9" s="80"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
         <v>229</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="79" t="s">
         <v>282</v>
@@ -4903,7 +4868,7 @@
         <v>308</v>
       </c>
       <c r="K10" s="79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L10" s="80" t="s">
         <v>240</v>
@@ -4917,7 +4882,7 @@
       </c>
       <c r="P10" s="80"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
         <v>230</v>
       </c>
@@ -4942,7 +4907,7 @@
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>231</v>
       </c>
@@ -4967,7 +4932,7 @@
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="81" t="s">
         <v>232</v>
       </c>
@@ -4992,7 +4957,7 @@
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="81" t="s">
         <v>233</v>
       </c>
@@ -5017,23 +4982,23 @@
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="79" t="s">
         <v>343</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>344</v>
       </c>
       <c r="F15" s="82"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
       <c r="K15" s="79" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>216</v>
@@ -5054,9 +5019,9 @@
       <c r="J16" s="77"/>
       <c r="K16" s="51"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>217</v>
@@ -5077,9 +5042,9 @@
       <c r="J17" s="77"/>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18" s="79" t="s">
         <v>218</v>
@@ -5100,9 +5065,9 @@
       <c r="J18" s="77"/>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>219</v>
@@ -5123,23 +5088,23 @@
       <c r="J19" s="77"/>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>368</v>
       </c>
-      <c r="C20" s="79" t="s">
-        <v>369</v>
-      </c>
       <c r="D20" s="79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
       <c r="K20" s="79" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="39.6" customHeight="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90" t="s">
         <v>288</v>
       </c>
@@ -5150,7 +5115,7 @@
         <v>327</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G21" s="79" t="s">
         <v>298</v>
@@ -5180,7 +5145,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="39.6" customHeight="1">
+    <row r="22" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="92" t="s">
         <v>334</v>
       </c>
@@ -5188,7 +5153,7 @@
         <v>333</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>330</v>
@@ -5202,7 +5167,7 @@
       <c r="N22" s="80"/>
       <c r="O22" s="80"/>
     </row>
-    <row r="23" spans="1:17" ht="39.6" customHeight="1">
+    <row r="23" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="92" t="s">
         <v>335</v>
       </c>
@@ -5210,10 +5175,10 @@
         <v>332</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F23" s="79" t="s">
         <v>331</v>
@@ -5227,14 +5192,14 @@
       <c r="N23" s="80"/>
       <c r="O23" s="80"/>
     </row>
-    <row r="24" spans="1:17" ht="39.6" customHeight="1">
+    <row r="24" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
       <c r="L24" s="80"/>
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
     </row>
-    <row r="25" spans="1:17" ht="32.4">
+    <row r="25" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="90" t="s">
         <v>326</v>
       </c>
@@ -5245,7 +5210,7 @@
         <v>301</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G25" s="79" t="s">
         <v>298</v>
@@ -5281,15 +5246,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
     </row>
-    <row r="28" spans="1:17" ht="64.8">
+    <row r="28" spans="1:17" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>316</v>
       </c>
@@ -5300,7 +5265,7 @@
         <v>311</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G28" s="77" t="s">
         <v>299</v>
@@ -5336,7 +5301,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="55.95" customHeight="1">
+    <row r="29" spans="1:17" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="90" t="s">
         <v>283</v>
       </c>
@@ -5347,7 +5312,7 @@
         <v>312</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G29" s="77" t="s">
         <v>299</v>
@@ -5384,7 +5349,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FD8F39-F435-4B99-B04D-C26E848163D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="389">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1580,12 +1581,20 @@
 5.另收欠款(未用)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>CustNo ASC,FacmNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2316,9 +2325,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2475,6 +2484,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2510,6 +2536,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2685,14 +2728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="20" bestFit="1" customWidth="1"/>
@@ -2703,7 +2746,7 @@
     <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="99" t="s">
         <v>8</v>
       </c>
@@ -2718,7 +2761,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="99"/>
       <c r="B2" s="100"/>
       <c r="C2" s="12" t="s">
@@ -2731,7 +2774,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="102" t="s">
         <v>9</v>
       </c>
@@ -2746,7 +2789,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="99" t="s">
         <v>11</v>
       </c>
@@ -2757,7 +2800,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="102" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2813,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="32.4">
       <c r="A6" s="99" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2826,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="99" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +2839,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="19" customFormat="1">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="40" customFormat="1">
       <c r="A9" s="41">
         <v>1</v>
       </c>
@@ -2840,7 +2883,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="41">
         <f>A9+1</f>
         <v>2</v>
@@ -2860,7 +2903,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="41">
         <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
@@ -2882,7 +2925,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="178.2">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2904,7 +2947,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2926,7 +2969,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="35" customFormat="1">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2948,7 +2991,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2970,7 +3013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="22" customFormat="1">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2990,7 +3033,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3010,7 +3053,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3032,7 +3075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="32.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3054,7 +3097,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="81">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3076,7 +3119,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3098,7 +3141,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3122,7 +3165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3146,7 +3189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3166,7 +3209,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="40" customFormat="1" ht="32.4">
       <c r="A25" s="41">
         <f t="shared" ref="A25:A37" si="1">A24+1</f>
         <v>17</v>
@@ -3188,7 +3231,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3210,7 +3253,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3232,7 +3275,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3254,7 +3297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3276,7 +3319,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3298,7 +3341,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="40" customFormat="1">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3320,7 +3363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3342,7 +3385,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3364,7 +3407,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="40" customFormat="1">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3384,7 +3427,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3406,7 +3449,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3426,7 +3469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -3446,7 +3489,7 @@
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -3463,10 +3506,10 @@
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="G39" s="30"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -3491,15 +3534,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
@@ -3507,7 +3550,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3518,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -3529,7 +3572,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -3540,7 +3583,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -3551,7 +3594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -3562,7 +3605,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3573,15 +3616,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -3589,10 +3635,10 @@
         <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32.4">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -3603,7 +3649,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>206</v>
       </c>
@@ -3614,7 +3660,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>209</v>
       </c>
@@ -3622,7 +3668,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>375</v>
       </c>
@@ -3633,7 +3679,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="32.4">
       <c r="A13" s="1" t="s">
         <v>376</v>
       </c>
@@ -3644,7 +3690,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>377</v>
       </c>
@@ -3655,7 +3701,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>383</v>
       </c>
@@ -3674,14 +3720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
@@ -3691,17 +3737,17 @@
     <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="54" customFormat="1">
       <c r="A1" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3727,7 +3773,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="35" customFormat="1" ht="164.4" customHeight="1">
       <c r="B6" s="32">
         <v>1</v>
       </c>
@@ -3751,7 +3797,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="35" customFormat="1" ht="78" customHeight="1">
       <c r="B7" s="32">
         <v>2</v>
       </c>
@@ -3775,7 +3821,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="35" customFormat="1" ht="24.6" customHeight="1">
       <c r="B8" s="32">
         <v>3</v>
       </c>
@@ -3799,7 +3845,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="C10" s="53"/>
       <c r="D10" s="52"/>
     </row>
@@ -3810,14 +3856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="54" customWidth="1"/>
@@ -3828,43 +3874,43 @@
     <col min="16" max="16" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="44"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="44"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="44" t="s">
         <v>100</v>
       </c>
@@ -3880,7 +3926,7 @@
       </c>
       <c r="P9" s="107"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="44"/>
       <c r="J10" s="55" t="s">
         <v>161</v>
@@ -3904,7 +3950,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="44"/>
       <c r="J11" s="58"/>
       <c r="K11" s="59"/>
@@ -3914,7 +3960,7 @@
       <c r="O11" s="71"/>
       <c r="P11" s="61"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
         <v>165</v>
       </c>
@@ -3940,7 +3986,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
         <v>166</v>
       </c>
@@ -3966,7 +4012,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
         <v>101</v>
       </c>
@@ -3978,7 +4024,7 @@
       <c r="O14" s="71"/>
       <c r="P14" s="61"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
         <v>102</v>
       </c>
@@ -3990,7 +4036,7 @@
       <c r="O15" s="71"/>
       <c r="P15" s="61"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
         <v>167</v>
       </c>
@@ -4006,7 +4052,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="44" t="s">
         <v>168</v>
       </c>
@@ -4022,7 +4068,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="44" t="s">
         <v>169</v>
       </c>
@@ -4038,294 +4084,294 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="44"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="44"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="44"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="44"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="44"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="44"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="44"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="44"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="44" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="44" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="44"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="16.8" thickBot="1">
       <c r="A83" s="45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="16.8" thickBot="1">
       <c r="A84" s="46" t="s">
         <v>149</v>
       </c>
@@ -4336,7 +4382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="103">
         <v>1</v>
       </c>
@@ -4347,14 +4393,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="16.8" thickBot="1">
       <c r="A86" s="104"/>
       <c r="B86" s="49">
         <v>4</v>
       </c>
       <c r="C86" s="104"/>
     </row>
-    <row r="87" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="16.8" thickBot="1">
       <c r="A87" s="50">
         <v>2</v>
       </c>
@@ -4365,28 +4411,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="45"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="44"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="44"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="44"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="44"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="44"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="44"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="44"/>
     </row>
   </sheetData>
@@ -4407,7 +4453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4415,7 +4461,7 @@
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="81" bestFit="1" customWidth="1"/>
@@ -4437,7 +4483,7 @@
     <col min="18" max="16384" width="8.88671875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="88" customFormat="1" ht="49.2" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>246</v>
       </c>
@@ -4490,7 +4536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="77" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="77" t="s">
         <v>243</v>
       </c>
@@ -4529,7 +4575,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="77" customFormat="1" ht="48.6">
       <c r="A3" s="91" t="s">
         <v>224</v>
       </c>
@@ -4577,7 +4623,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="32.4">
       <c r="A4" s="90" t="s">
         <v>226</v>
       </c>
@@ -4624,7 +4670,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="89" t="s">
         <v>236</v>
       </c>
@@ -4672,7 +4718,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="90" t="s">
         <v>225</v>
       </c>
@@ -4720,7 +4766,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="90" t="s">
         <v>235</v>
       </c>
@@ -4768,7 +4814,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="90" t="s">
         <v>227</v>
       </c>
@@ -4808,7 +4854,7 @@
       </c>
       <c r="P8" s="80"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="90" t="s">
         <v>228</v>
       </c>
@@ -4848,7 +4894,7 @@
       </c>
       <c r="P9" s="80"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="81" t="s">
         <v>229</v>
       </c>
@@ -4882,7 +4928,7 @@
       </c>
       <c r="P10" s="80"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="81" t="s">
         <v>230</v>
       </c>
@@ -4907,7 +4953,7 @@
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="81" t="s">
         <v>231</v>
       </c>
@@ -4932,7 +4978,7 @@
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="81" t="s">
         <v>232</v>
       </c>
@@ -4957,7 +5003,7 @@
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="81" t="s">
         <v>233</v>
       </c>
@@ -4982,7 +5028,7 @@
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="81" t="s">
         <v>342</v>
       </c>
@@ -4996,7 +5042,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="81" t="s">
         <v>344</v>
       </c>
@@ -5019,7 +5065,7 @@
       <c r="J16" s="77"/>
       <c r="K16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="81" t="s">
         <v>345</v>
       </c>
@@ -5042,7 +5088,7 @@
       <c r="J17" s="77"/>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="81" t="s">
         <v>346</v>
       </c>
@@ -5065,7 +5111,7 @@
       <c r="J18" s="77"/>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="81" t="s">
         <v>347</v>
       </c>
@@ -5088,7 +5134,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="81" t="s">
         <v>367</v>
       </c>
@@ -5104,7 +5150,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="39.6" customHeight="1">
       <c r="A21" s="90" t="s">
         <v>288</v>
       </c>
@@ -5145,7 +5191,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="39.6" customHeight="1">
       <c r="A22" s="92" t="s">
         <v>334</v>
       </c>
@@ -5167,7 +5213,7 @@
       <c r="N22" s="80"/>
       <c r="O22" s="80"/>
     </row>
-    <row r="23" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="39.6" customHeight="1">
       <c r="A23" s="92" t="s">
         <v>335</v>
       </c>
@@ -5192,14 +5238,14 @@
       <c r="N23" s="80"/>
       <c r="O23" s="80"/>
     </row>
-    <row r="24" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="39.6" customHeight="1">
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
       <c r="L24" s="80"/>
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
     </row>
-    <row r="25" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="90" t="s">
         <v>326</v>
       </c>
@@ -5246,15 +5292,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
     </row>
-    <row r="28" spans="1:17" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="64.8">
       <c r="A28" s="89" t="s">
         <v>316</v>
       </c>
@@ -5301,7 +5347,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="55.95" customHeight="1">
       <c r="A29" s="90" t="s">
         <v>283</v>
       </c>
@@ -5349,7 +5395,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DbLayouts/L6-共同作業/AcReceivable.xlsx
+++ b/DbLayouts/L6-共同作業/AcReceivable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FD8F39-F435-4B99-B04D-C26E848163D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">資料轉換!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="390">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1589,11 +1588,15 @@
     <t>CustNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>OpenAcDate ASC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -2325,9 +2328,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2484,23 +2487,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2536,23 +2522,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2728,11 +2697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3534,12 +3503,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3667,6 +3636,9 @@
       <c r="B11" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="C11" s="42" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -3720,7 +3692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,7 +3828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,7 +4425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5395,7 +5367,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
